--- a/OriginalStudents.xlsx
+++ b/OriginalStudents.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9e8258abb3e06f3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{957B53D4-FBCE-4EF6-A712-75F6077DBB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2395DD85-94FD-4500-867B-E773C361B573}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423940C-3837-42A2-B2D5-421A433ADB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,10 +305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,7 +573,7 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1232,5 +1223,6 @@
   <autoFilter ref="A1:R10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="43" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OriginalStudents.xlsx
+++ b/OriginalStudents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423940C-3837-42A2-B2D5-421A433ADB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475010B-057E-43BB-852D-9C6EE137408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Birthday</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,85 @@
   </si>
   <si>
     <t>Hufflepuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frances</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>School</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hogwarts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Durmstrang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sub-Pure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mhelóra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メローラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ravenclow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Randolf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gryffindor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sucibe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martyn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fūngsyūn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schiehallion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーティン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>封孫</t>
+    <rPh sb="0" eb="2">
+      <t>フウマゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NaN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -583,16 +662,17 @@
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
     <col min="6" max="6" width="23.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
     <col min="8" max="8" width="20.296875" customWidth="1"/>
     <col min="9" max="9" width="25.09765625" customWidth="1"/>
     <col min="10" max="10" width="9.8984375" customWidth="1"/>
     <col min="11" max="11" width="9.796875" customWidth="1"/>
     <col min="16" max="16" width="9.19921875" customWidth="1"/>
-    <col min="18" max="18" width="15.69921875" customWidth="1"/>
+    <col min="18" max="18" width="9.69921875" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -624,31 +704,34 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>1958</v>
       </c>
@@ -680,21 +763,24 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="P2" s="5" t="str">
+      <c r="N2" s="5"/>
+      <c r="Q2" s="5" t="str">
         <f>HYPERLINK(5:5,"Alex")</f>
         <v>Alex</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>1955</v>
       </c>
@@ -726,14 +812,17 @@
         <v>28</v>
       </c>
       <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="M3" s="5" t="str">
         <f>HYPERLINK(2:2,"Galina")</f>
         <v>Galina</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>1975</v>
       </c>
@@ -765,18 +854,21 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f>HYPERLINK(3:3,"Gowin")</f>
-        <v>Gowin</v>
-      </c>
       <c r="O4" s="5" t="str">
-        <f>HYPERLINK(2:2,"Fungsyun")</f>
-        <v>Fungsyun</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <f>HYPERLINK(3:3,"Vermy")</f>
+        <v>Vermy</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f>HYPERLINK(2:2,"Galina")</f>
+        <v>Galina</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>1939</v>
       </c>
@@ -808,26 +900,177 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+    <row r="6" spans="1:19">
+      <c r="A6" s="3">
+        <v>1973</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26949</v>
+      </c>
+      <c r="C6">
+        <v>984</v>
+      </c>
+      <c r="D6">
+        <v>992</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>HYPERLINK(5:5,"Alex")</f>
+        <v>Alex</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45464</v>
+      </c>
+      <c r="C7">
+        <v>987</v>
+      </c>
+      <c r="D7">
+        <v>993</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5" t="str">
+        <f>HYPERLINK(5:5,"Alex")</f>
+        <v>Alex</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="2">
+        <v>28935</v>
+      </c>
+      <c r="C8">
+        <v>990</v>
+      </c>
+      <c r="D8">
+        <v>996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="5" t="str">
+        <f>HYPERLINK(5:5,"Alex")</f>
+        <v>Alex</v>
+      </c>
+      <c r="S8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3">
+        <v>1951</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
@@ -859,27 +1102,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
     </row>
@@ -1220,7 +1463,7 @@
       <c r="B100" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="43" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/OriginalStudents.xlsx
+++ b/OriginalStudents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475010B-057E-43BB-852D-9C6EE137408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A915C82-26C5-4E7F-88C2-AB009D81B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/OriginalStudents.xlsx
+++ b/OriginalStudents.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A915C82-26C5-4E7F-88C2-AB009D81B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33DCF7-45E1-40E1-ACC3-910D91AE905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1788" windowWidth="17664" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -830,7 +830,7 @@
         <v>27736</v>
       </c>
       <c r="C4">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D4">
         <v>992</v>
@@ -947,16 +947,16 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B7" s="2">
-        <v>45464</v>
+        <v>27658</v>
       </c>
       <c r="C7">
         <v>987</v>
       </c>
       <c r="D7">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B8" s="2">
         <v>28935</v>
       </c>
       <c r="C8">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D8">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>

--- a/OriginalStudents.xlsx
+++ b/OriginalStudents.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33DCF7-45E1-40E1-ACC3-910D91AE905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B534DF3E-37CF-4CBA-8594-A3E1C1498441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1788" windowWidth="17664" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1392" windowWidth="17664" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -992,7 +992,7 @@
         <v>1977</v>
       </c>
       <c r="B8" s="2">
-        <v>28935</v>
+        <v>28198</v>
       </c>
       <c r="C8">
         <v>988</v>
